--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="处理模板" sheetId="1" r:id="rId1"/>
@@ -38,30 +38,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>11</author>
-  </authors>
-  <commentList>
-    <comment ref="O2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>默认为出库单号,需要修改则填写</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>*预报单号</t>
   </si>
@@ -91,6 +69,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>信息如果不填写则默认源出库单数据，修改字段会进行替换，如需替换为空则使用</t>
     </r>
     <r>
@@ -175,6 +160,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*街道</t>
     </r>
     <r>
@@ -189,6 +181,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -202,6 +200,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*城镇</t>
     </r>
     <r>
@@ -225,6 +230,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*州</t>
     </r>
     <r>
@@ -254,9 +266,6 @@
   </si>
   <si>
     <t>*物流服务</t>
-  </si>
-  <si>
-    <t>RefNO</t>
   </si>
   <si>
     <t>备注</t>
@@ -270,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -307,34 +316,96 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,69 +419,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,9 +441,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,22 +458,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,31 +528,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,151 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,17 +750,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,16 +778,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,19 +827,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,148 +852,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,7 +1343,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1431,10 +1440,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1447,10 +1456,10 @@
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.75" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="1"/>
+    <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:16">
+    <row r="1" ht="30" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1468,9 +1477,8 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
     </row>
-    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1515,9 +1523,6 @@
       </c>
       <c r="O2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1525,24 +1530,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
       <formula1>处理模板!$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1551,7 +1555,6 @@
   <commentList sheetStid="1">
     <comment s:ref="B1" rgbClr="3ACA3C"/>
   </commentList>
-  <commentList sheetStid="3"/>
 </comments>
 </file>
 

--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
@@ -4,42 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="处理模板" sheetId="1" r:id="rId1"/>
-    <sheet name="上架SKU详情" sheetId="2" r:id="rId2"/>
-    <sheet name="重派数据" sheetId="3" r:id="rId3"/>
+    <sheet name="重派数据" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>11</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>拆包上架：需要补充上架信息
-重派：填写重派信息</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+  <si>
+    <t>重派需要填写sheet页2 的重派数据；销毁则无需填写</t>
+  </si>
   <si>
     <t>*预报单号</t>
   </si>
@@ -51,21 +30,6 @@
   </si>
   <si>
     <t>重派</t>
-  </si>
-  <si>
-    <t>*SKU</t>
-  </si>
-  <si>
-    <t>*新上架SKU编码</t>
-  </si>
-  <si>
-    <t>*上架数量</t>
-  </si>
-  <si>
-    <t>客户备注</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <r>
@@ -281,10 +245,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -314,12 +278,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -335,10 +328,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,115 +405,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,11 +459,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -528,25 +487,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,157 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,15 +709,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -774,11 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,10 +756,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -826,174 +789,170 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,10 +975,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1341,109 +1300,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="22" customHeight="1" spans="1:2">
+    <row r="1" ht="34" customHeight="1" spans="1:2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" customFormat="1" ht="22" customHeight="1" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"销毁,整包上架,拆包上架,按明细上架,重派"</formula1>
+      <formula1>"重派,销毁"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
-      <formula1>处理模板!$A:$A</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1461,7 +1372,7 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1480,57 +1391,57 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1538,31 +1449,14 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+      <formula1>处理模板!$A:$A</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>处理模板!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <commentList sheetStid="1">
-    <comment s:ref="B1" rgbClr="3ACA3C"/>
-  </commentList>
-</comments>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
@@ -4,33 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="处理模板" sheetId="1" r:id="rId1"/>
-    <sheet name="重派数据" sheetId="3" r:id="rId2"/>
+    <sheet name="重派数据" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t>重派需要填写sheet页2 的重派数据；销毁则无需填写</t>
-  </si>
-  <si>
-    <t>*预报单号</t>
-  </si>
-  <si>
-    <t>*处理方式</t>
-  </si>
-  <si>
-    <t>YBD20220217000003</t>
-  </si>
-  <si>
-    <t>重派</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -105,6 +89,12 @@
     </r>
   </si>
   <si>
+    <t>*预报单号</t>
+  </si>
+  <si>
+    <t>*处理方式</t>
+  </si>
+  <si>
     <t>库存优先满足该订单</t>
   </si>
   <si>
@@ -233,6 +223,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>YBD20220217000003</t>
+  </si>
+  <si>
+    <t>重派</t>
   </si>
   <si>
     <t>是</t>
@@ -243,9 +239,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -277,10 +273,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,83 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,19 +304,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,24 +347,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,19 +483,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,163 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +705,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -720,6 +725,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,35 +759,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +785,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -797,15 +802,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -814,10 +810,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,137 +822,137 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -969,16 +965,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1300,79 +1293,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="34" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" customFormat="1" ht="22" customHeight="1" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"重派,销毁"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="1" customWidth="1"/>
-    <col min="3" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="15.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="1" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
+    <col min="4" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:15">
+    <row r="1" ht="30" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1388,71 +1330,81 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
-    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:16">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
-      <formula1>处理模板!$A:$A</formula1>
+      <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"重派,销毁"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="重派数据表" sheetId="3" r:id="rId1"/>
@@ -14,48 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>预报单号
-（必填）</t>
-  </si>
-  <si>
-    <t>处理方式
-（必填）</t>
-  </si>
-  <si>
-    <t>库存优先满足该订单
-（非必填）</t>
-  </si>
-  <si>
-    <t>收件人
-（必填）</t>
-  </si>
-  <si>
-    <t>联系电话
-（非必填）</t>
-  </si>
-  <si>
-    <t>电子邮箱
-（非必填）</t>
-  </si>
-  <si>
-    <t>增值税号
-（非必填）</t>
-  </si>
-  <si>
-    <t>COD
-（非必填）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>预报单号</t>
+  </si>
+  <si>
+    <t>处理方式</t>
+  </si>
+  <si>
+    <t>库存优先满足该订单</t>
+  </si>
+  <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>增值税号</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -66,18 +51,11 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>1
-（必填）</t>
+      <t>1</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -87,28 +65,11 @@
         <rFont val="Helvetica"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">2
-</t>
+      <t>2</t>
     </r>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（非必填）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>城镇</t>
     </r>
     <r>
@@ -119,19 +80,11 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>/城市
-（必填）</t>
+      <t>/城市</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>州</t>
     </r>
     <r>
@@ -142,59 +95,20 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>/省
-（必填）</t>
+      <t>/省</t>
     </r>
   </si>
   <si>
-    <t>国家
-（必填）</t>
-  </si>
-  <si>
-    <t>邮编
-（必填）</t>
-  </si>
-  <si>
-    <t>物流服务
-（必填）</t>
-  </si>
-  <si>
-    <t>备注
-（非必填）</t>
-  </si>
-  <si>
-    <t>YBD20220217000003</t>
-  </si>
-  <si>
-    <t>重派</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>Aaaaaa</t>
-  </si>
-  <si>
-    <t>Street1</t>
-  </si>
-  <si>
-    <t>ENG</t>
-  </si>
-  <si>
-    <t>Manchester</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>M31 4ED</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>备注：使用该模板之前
-请删除样例数据和此备注。</t>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>邮编</t>
+  </si>
+  <si>
+    <t>物流服务</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -207,7 +121,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -227,13 +141,6 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -745,48 +652,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,101 +706,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -905,12 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1237,29 +1138,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A3:$XFD3 $A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6363636363636" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5454545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6363636363636" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.0909090909091" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3727272727273" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4545454545455" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.0909090909091" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5454545454545" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7545454545455" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.8166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1833333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.4583333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.0916666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7583333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" ht="35" customHeight="1" spans="1:16">
@@ -1310,43 +1211,6 @@
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" ht="35" customHeight="1" spans="1:1">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-returnex/src/main/resources/template/退货处理模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>预报单号</t>
   </si>
@@ -37,10 +37,20 @@
     <t>增值税号</t>
   </si>
   <si>
+    <t>house No</t>
+  </si>
+  <si>
     <t>COD</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -56,6 +66,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>街道</t>
     </r>
     <r>
@@ -70,6 +86,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>城镇</t>
     </r>
     <r>
@@ -85,6 +108,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>州</t>
     </r>
     <r>
@@ -1138,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A3:$XFD3 $A2:$XFD2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1151,19 +1181,19 @@
     <col min="4" max="4" width="13.6333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.3666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.0916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4583333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.0916666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7583333333333" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3666666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.8166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.0916666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1833333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.4583333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.0916666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5416666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7583333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.3666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="35" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="35" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1188,13 +1218,13 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1209,8 +1239,11 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
